--- a/ExcelParsingConverter/bin/Debug/GameTableDoc.xlsx
+++ b/ExcelParsingConverter/bin/Debug/GameTableDoc.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ninja\ExcelParsing\ExcelParsingConverter\ExcelParsingConverter\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31D24F0-2DC3-4A2E-A0EF-760F797181E9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28DB7635-1148-4101-A8A9-287D7F5BCA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-9000" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{81A7C282-206D-4EA9-B4CD-D05BD95E55F5}"/>
+    <workbookView xWindow="-16320" yWindow="-9000" windowWidth="16440" windowHeight="28320" firstSheet="1" xr2:uid="{81A7C282-206D-4EA9-B4CD-D05BD95E55F5}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterTable" sheetId="1" r:id="rId1"/>
     <sheet name="LevelUpTable" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,6 +47,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>STR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,7 +83,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Level</t>
+    <t>신입 도적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyLeather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔한 도적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyLeatherC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베테랑 도적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyLeatherV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적 부두목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyLeatherD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -77,38 +120,6 @@
   </si>
   <si>
     <t>EnemyLeatherL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신입 도적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베테랑 도적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyLeather</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흔한 도적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyLeatherC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyLeatherV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도적 부두목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyLeatherD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -120,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,7 +372,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -659,17 +670,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7DB743-F875-4C4B-B987-827B825DF9E9}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="9" max="9" width="15.625" customWidth="1"/>
     <col min="11" max="11" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -677,39 +688,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="6">
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -730,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1">
         <v>13</v>
@@ -739,12 +750,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="6">
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -765,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1">
         <v>20</v>
@@ -774,12 +785,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="6">
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -800,7 +811,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J4" s="1">
         <v>29</v>
@@ -809,12 +820,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="6">
         <v>1004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -835,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1">
         <v>46</v>
@@ -844,12 +855,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="17.25" thickBot="1">
       <c r="A6" s="8">
         <v>1005</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C6" s="9">
         <v>4</v>
@@ -870,7 +881,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J6" s="9">
         <v>59</v>
@@ -890,13 +901,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0084DE02-CF23-4285-82FC-B3AA6CD44AFF}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -904,22 +915,22 @@
         <v>21</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -942,7 +953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -965,7 +976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -988,7 +999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1011,7 +1022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1034,7 +1045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="17.25" thickBot="1">
       <c r="A7" s="8">
         <v>6</v>
       </c>

--- a/ExcelParsingConverter/bin/Debug/GameTableDoc.xlsx
+++ b/ExcelParsingConverter/bin/Debug/GameTableDoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ninja\ExcelParsing\ExcelParsingConverter\ExcelParsingConverter\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\learnUnity\converts\ExcelParsingConverter\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28DB7635-1148-4101-A8A9-287D7F5BCA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D51344-F474-42D3-A2DD-054147D94F9E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-9000" windowWidth="16440" windowHeight="28320" firstSheet="1" xr2:uid="{81A7C282-206D-4EA9-B4CD-D05BD95E55F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{81A7C282-206D-4EA9-B4CD-D05BD95E55F5}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterTable" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -131,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,7 +361,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -670,17 +659,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7DB743-F875-4C4B-B987-827B825DF9E9}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:N1048576"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="15.625" customWidth="1"/>
     <col min="11" max="11" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -715,7 +704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1001</v>
       </c>
@@ -750,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1002</v>
       </c>
@@ -785,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1003</v>
       </c>
@@ -820,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1004</v>
       </c>
@@ -855,7 +844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17.25" thickBot="1">
+    <row r="6" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>1005</v>
       </c>
@@ -901,13 +890,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0084DE02-CF23-4285-82FC-B3AA6CD44AFF}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -930,7 +919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -953,7 +942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -976,7 +965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -999,7 +988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1022,7 +1011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1045,7 +1034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1">
+    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>6</v>
       </c>

--- a/ExcelParsingConverter/bin/Debug/GameTableDoc.xlsx
+++ b/ExcelParsingConverter/bin/Debug/GameTableDoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\learnUnity\converts\ExcelParsingConverter\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D51344-F474-42D3-A2DD-054147D94F9E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCBAF5E-D80B-4A40-B170-6857C64B7B04}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{81A7C282-206D-4EA9-B4CD-D05BD95E55F5}"/>
+    <workbookView xWindow="1095" yWindow="3180" windowWidth="21600" windowHeight="11295" xr2:uid="{81A7C282-206D-4EA9-B4CD-D05BD95E55F5}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterTable" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,30 @@
   </si>
   <si>
     <t>TargetXP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fwalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bwalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MovSpeedScale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttSpeedScale</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -294,13 +318,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -340,7 +403,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -657,19 +726,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7DB743-F875-4C4B-B987-827B825DF9E9}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-    <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="13" max="13" width="15.625" customWidth="1"/>
+    <col min="15" max="15" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -682,10 +751,10 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -695,16 +764,28 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1001</v>
       </c>
@@ -717,10 +798,10 @@
       <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="14">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
         <v>1</v>
       </c>
       <c r="G2" s="1">
@@ -729,17 +810,29 @@
       <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1">
+      <c r="N2" s="1">
         <v>13</v>
       </c>
-      <c r="K2" s="7">
+      <c r="O2" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1002</v>
       </c>
@@ -752,10 +845,10 @@
       <c r="D3" s="1">
         <v>4</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
         <v>2</v>
       </c>
       <c r="G3" s="1">
@@ -764,17 +857,29 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L3" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="1">
+      <c r="N3" s="1">
         <v>20</v>
       </c>
-      <c r="K3" s="7">
+      <c r="O3" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1003</v>
       </c>
@@ -787,10 +892,10 @@
       <c r="D4" s="1">
         <v>4</v>
       </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="14">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
         <v>2</v>
       </c>
       <c r="G4" s="1">
@@ -799,17 +904,29 @@
       <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="1">
+      <c r="N4" s="1">
         <v>29</v>
       </c>
-      <c r="K4" s="7">
+      <c r="O4" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1004</v>
       </c>
@@ -822,10 +939,10 @@
       <c r="D5" s="1">
         <v>6</v>
       </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="14">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6">
         <v>3</v>
       </c>
       <c r="G5" s="1">
@@ -834,17 +951,29 @@
       <c r="H5" s="1">
         <v>2</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="1">
+      <c r="N5" s="1">
         <v>46</v>
       </c>
-      <c r="K5" s="7">
+      <c r="O5" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>1005</v>
       </c>
@@ -857,10 +986,10 @@
       <c r="D6" s="9">
         <v>8</v>
       </c>
-      <c r="E6" s="9">
-        <v>3</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E6" s="15">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8">
         <v>4</v>
       </c>
       <c r="G6" s="9">
@@ -869,13 +998,25 @@
       <c r="H6" s="9">
         <v>3</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="K6" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L6" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="9">
+      <c r="N6" s="9">
         <v>59</v>
       </c>
-      <c r="K6" s="10">
+      <c r="O6" s="10">
         <v>2</v>
       </c>
     </row>
@@ -888,15 +1029,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0084DE02-CF23-4285-82FC-B3AA6CD44AFF}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -915,11 +1060,17 @@
       <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -938,11 +1089,17 @@
       <c r="F2" s="1">
         <v>3</v>
       </c>
-      <c r="G2" s="7">
-        <v>3</v>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -961,11 +1118,17 @@
       <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="7">
-        <v>3</v>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -984,11 +1147,17 @@
       <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="G4" s="7">
-        <v>3</v>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1007,11 +1176,17 @@
       <c r="F5" s="1">
         <v>5</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="1">
         <v>4</v>
       </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1030,11 +1205,17 @@
       <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="1">
         <v>4</v>
       </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1053,8 +1234,14 @@
       <c r="F7" s="9">
         <v>7</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>5</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
